--- a/BackTest/2019-10-26 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-26 BackTest QTUM.xlsx
@@ -451,20 +451,14 @@
         <v>2019.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2021</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>2020.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2019</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>2020</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2019</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>2019.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2016</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>2019.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2021</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>2019.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2022</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>2020</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2023</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>2022.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2023</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>2024.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2028</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>2026</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2028</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>2028</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2032</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>2029.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2031</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>2030</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2030</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>2030.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2030</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>2031.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2033</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>2031.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2033</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>2032</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2032</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>2032.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2033</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>2032.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2033</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>2033.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2033</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>2034.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2035</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>2035.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2038</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>2037.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2038</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>2040.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2040</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1442,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1520,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1559,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1598,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1750,16 +1574,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1787,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1822,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1857,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2344,594 +2166,510 @@
         <v>2005</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2031</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2312.4731</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2007.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F53" t="n">
+        <v>58.9921875</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2013.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1999.0978</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2019.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F55" t="n">
+        <v>737.6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2024.8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24.938</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2023.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>2003</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="C57" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2017.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F58" t="n">
+        <v>561.7327</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2008.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>281.1589</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2005.2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F60" t="n">
+        <v>16.7502</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2002.6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F61" t="n">
+        <v>125.0087</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2002.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F62" t="n">
+        <v>110.3613</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2000.2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F63" t="n">
+        <v>263.7418</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1999.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1999.6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>458.132</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1999.8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2001</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2031</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2033</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2012</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2312.4731</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2007.6</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2012</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2048</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2048</v>
-      </c>
-      <c r="F53" t="n">
-        <v>58.9921875</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2013.6</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2048</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1999.0978</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2019.2</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F55" t="n">
-        <v>737.6</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2024.8</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F56" t="n">
-        <v>24.938</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2023.4</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2004</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2017.8</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F58" t="n">
-        <v>561.7327</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2008.6</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2003</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F59" t="n">
-        <v>281.1589</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2005.2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2001</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F60" t="n">
-        <v>16.7502</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2002.6</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F61" t="n">
-        <v>125.0087</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2002.2</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F62" t="n">
-        <v>110.3613</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2000.2</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1994</v>
-      </c>
-      <c r="F63" t="n">
-        <v>263.7418</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1999.8</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F64" t="n">
-        <v>68.04000000000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1999.6</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F65" t="n">
-        <v>458.132</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1999.8</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2965,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
@@ -3006,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
@@ -3047,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
@@ -3088,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
@@ -3129,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
@@ -3170,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
@@ -3205,14 +2943,12 @@
         <v>2035.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>2041</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3246,14 +2982,12 @@
         <v>2040.4</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>2043</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3287,14 +3021,12 @@
         <v>2040.6</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2043</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -5980,14 +5712,12 @@
         <v>2018.6</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>2013</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -6021,14 +5751,12 @@
         <v>2016.2</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -6062,14 +5790,12 @@
         <v>2014.2</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -6103,14 +5829,12 @@
         <v>2012.6</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -6144,14 +5868,12 @@
         <v>2013.2</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -6185,14 +5907,12 @@
         <v>2014.6</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -6226,14 +5946,12 @@
         <v>2016.4</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -6267,14 +5985,12 @@
         <v>2018.2</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6308,14 +6024,12 @@
         <v>2020</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6349,14 +6063,12 @@
         <v>2019</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6390,14 +6102,12 @@
         <v>2018.4</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>2017</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6431,14 +6141,12 @@
         <v>2016.6</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2014</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6472,14 +6180,12 @@
         <v>2014.8</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6513,14 +6219,12 @@
         <v>2013</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6554,14 +6258,12 @@
         <v>2012.2</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6595,14 +6297,12 @@
         <v>2011.8</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6636,14 +6336,12 @@
         <v>2012</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>2012</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6677,14 +6375,12 @@
         <v>2013</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>2016</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6718,14 +6414,12 @@
         <v>2014.2</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>2017</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6759,14 +6453,12 @@
         <v>2015.6</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>2017</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6800,14 +6492,12 @@
         <v>2016</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>2017</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6841,14 +6531,12 @@
         <v>2018</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>2021</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6882,14 +6570,12 @@
         <v>2019.8</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>2025</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6923,14 +6609,12 @@
         <v>2021.6</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>2030</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6964,14 +6648,12 @@
         <v>2025.8</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>2039</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -7005,14 +6687,12 @@
         <v>2030.4</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2039</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -7046,14 +6726,12 @@
         <v>2033.6</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2043</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7087,14 +6765,12 @@
         <v>2036.2</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -8181,14 +7857,12 @@
         <v>2024.2</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>2021</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -8222,14 +7896,12 @@
         <v>2025</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>2029</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -8263,14 +7935,12 @@
         <v>2025.8</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>2021</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -8304,14 +7974,12 @@
         <v>2025.6</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>2022</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -8345,14 +8013,12 @@
         <v>2025.8</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>2032</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -8386,14 +8052,12 @@
         <v>2030.4</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>2034</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -8427,14 +8091,12 @@
         <v>2033</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -13307,18 +12969,16 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13350,11 +13010,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +13045,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +13080,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13467,11 +13115,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +13150,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13545,11 +13185,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +13220,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13623,11 +13255,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13662,11 +13290,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +13325,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13740,11 +13360,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13779,11 +13395,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13818,11 +13430,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13857,11 +13465,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +13500,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13935,11 +13535,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13974,11 +13570,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +13605,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14052,11 +13640,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +13675,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14130,11 +13710,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14169,11 +13745,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +13780,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14247,11 +13815,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14286,11 +13850,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14325,11 +13885,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +13920,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14403,11 +13955,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +13990,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14481,11 +14025,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14520,11 +14060,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14559,11 +14095,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14598,11 +14130,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14637,11 +14165,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14676,11 +14200,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14715,11 +14235,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14754,11 +14270,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +14305,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +14340,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +14375,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14910,11 +14410,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +14445,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14988,11 +14480,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +14515,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -15066,11 +14550,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +14585,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -15144,11 +14620,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15183,11 +14655,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15222,11 +14690,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15261,11 +14725,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15300,11 +14760,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15339,11 +14795,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15378,11 +14830,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15417,11 +14865,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15456,11 +14900,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15495,11 +14935,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +14970,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15573,11 +15005,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15612,11 +15040,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15651,11 +15075,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15690,11 +15110,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15145,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +15180,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15807,11 +15215,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15846,11 +15250,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15885,11 +15285,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15924,11 +15320,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15963,11 +15355,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -16002,11 +15390,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -16041,11 +15425,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -16080,11 +15460,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -16119,11 +15495,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -16158,11 +15530,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -16197,11 +15565,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +15600,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +15635,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +15670,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16353,11 +15705,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +15740,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16431,11 +15775,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16470,11 +15810,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16509,11 +15845,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16548,11 +15880,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16587,11 +15915,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16626,11 +15950,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16665,11 +15985,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16704,11 +16020,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16743,11 +16055,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16782,11 +16090,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16821,11 +16125,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16860,11 +16160,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16899,11 +16195,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16938,11 +16230,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +16265,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -17016,11 +16300,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -17055,11 +16335,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -17094,11 +16370,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -17133,11 +16405,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -17172,11 +16440,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +16475,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -17250,11 +16510,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17289,11 +16545,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17328,11 +16580,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17367,11 +16615,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17406,11 +16650,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17445,11 +16685,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17484,11 +16720,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17523,11 +16755,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17562,11 +16790,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17601,11 +16825,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +16860,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17679,11 +16895,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17718,11 +16930,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17757,11 +16965,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17796,11 +17000,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17835,11 +17035,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17874,11 +17070,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17913,11 +17105,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17952,11 +17140,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +17175,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -18030,11 +17210,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -18069,11 +17245,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -18108,11 +17280,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -18147,11 +17315,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -18186,11 +17350,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -18225,11 +17385,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18264,11 +17420,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18303,11 +17455,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18342,11 +17490,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18381,11 +17525,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +17560,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18459,11 +17595,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18498,11 +17630,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +17665,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18576,11 +17700,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18615,11 +17735,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18654,11 +17770,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18693,11 +17805,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18732,11 +17840,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18771,11 +17875,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18810,11 +17910,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18849,11 +17945,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18888,11 +17980,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18927,11 +18015,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18966,11 +18050,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -19005,11 +18085,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -19044,11 +18120,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -19083,12 +18155,10 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -19116,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
@@ -26568,20 +25638,14 @@
         <v>2021.4</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26609,20 +25673,14 @@
         <v>2023.4</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>2034</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26650,20 +25708,14 @@
         <v>2025.2</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>2034</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26698,11 +25750,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26730,20 +25778,14 @@
         <v>2035</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>2038</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26778,11 +25820,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26817,11 +25855,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26856,11 +25890,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26895,11 +25925,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26934,11 +25960,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26973,11 +25995,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -27012,11 +26030,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -27051,11 +26065,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -27090,11 +26100,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -27129,11 +26135,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -27168,11 +26170,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -27207,11 +26205,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -27246,11 +26240,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -27285,11 +26275,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27324,11 +26310,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27363,11 +26345,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27402,11 +26380,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27441,11 +26415,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27480,11 +26450,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27519,11 +26485,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27558,11 +26520,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27597,11 +26555,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27636,11 +26590,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27675,11 +26625,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27714,11 +26660,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27753,11 +26695,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27792,11 +26730,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27831,11 +26765,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27870,11 +26800,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27909,11 +26835,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27948,11 +26870,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27987,11 +26905,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -28026,11 +26940,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -28065,11 +26975,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -28104,11 +27010,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -28143,11 +27045,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -28182,11 +27080,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -28221,11 +27115,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -28260,11 +27150,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -28299,11 +27185,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -28338,11 +27220,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28377,11 +27255,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28416,11 +27290,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28455,11 +27325,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28494,11 +27360,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28533,11 +27395,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28572,11 +27430,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28611,11 +27465,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28650,11 +27500,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28689,11 +27535,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28728,11 +27570,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28767,11 +27605,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28806,11 +27640,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-26 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4046.05855538</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3999.74595538</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1929</v>
@@ -521,7 +521,7 @@
         <v>4023.3379926</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1928</v>
@@ -562,7 +562,7 @@
         <v>3997.4421926</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1934</v>
@@ -603,7 +603,7 @@
         <v>3993.4421926</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1929</v>
@@ -640,7 +640,7 @@
         <v>4189.4230926</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1927</v>
@@ -681,7 +681,7 @@
         <v>4373.3281926</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1930</v>
@@ -722,7 +722,7 @@
         <v>3940.5743926</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1931</v>
@@ -763,7 +763,7 @@
         <v>3940.5743926</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1930</v>
@@ -804,7 +804,7 @@
         <v>3976.3738926</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1930</v>
@@ -845,7 +845,7 @@
         <v>4174.873892600001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1931</v>
@@ -886,7 +886,7 @@
         <v>4355.9398926</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1933</v>
@@ -927,7 +927,7 @@
         <v>5210.5774926</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1935</v>
@@ -968,7 +968,7 @@
         <v>5407.5774926</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1938</v>
@@ -1009,7 +1009,7 @@
         <v>5449.552492600001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1939</v>
@@ -1050,7 +1050,7 @@
         <v>5583.7303926</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1945</v>
@@ -1091,7 +1091,7 @@
         <v>6100.5457926</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1955</v>
@@ -1132,7 +1132,7 @@
         <v>9028.895392599999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1976</v>
@@ -1173,7 +1173,7 @@
         <v>15251.2971926</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1985</v>
@@ -1214,7 +1214,7 @@
         <v>13462.8614926</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1986</v>
@@ -1255,7 +1255,7 @@
         <v>16871.8266926</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1982</v>
@@ -1296,7 +1296,7 @@
         <v>15778.8467926</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1984</v>
@@ -1337,7 +1337,7 @@
         <v>10331.7653926</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1977</v>
@@ -1378,7 +1378,7 @@
         <v>11800.15008668</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1954</v>
@@ -1419,7 +1419,7 @@
         <v>13867.98468668</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1960</v>
@@ -1460,7 +1460,7 @@
         <v>14276.01548668</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1963</v>
@@ -1501,7 +1501,7 @@
         <v>15489.75878668</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1967</v>
@@ -1542,7 +1542,7 @@
         <v>17202.56498668</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1968</v>
@@ -1583,7 +1583,7 @@
         <v>17138.86498668</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1976</v>
@@ -1624,7 +1624,7 @@
         <v>18147.91648668</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1967</v>
@@ -1665,9 +1665,11 @@
         <v>19056.17578668</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1998</v>
+      </c>
       <c r="J32" t="n">
         <v>1929</v>
       </c>
@@ -1704,9 +1706,11 @@
         <v>18359.15288668</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2005</v>
+      </c>
       <c r="J33" t="n">
         <v>1929</v>
       </c>
@@ -1743,9 +1747,11 @@
         <v>19388.67238668</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1996</v>
+      </c>
       <c r="J34" t="n">
         <v>1929</v>
       </c>
@@ -1782,9 +1788,11 @@
         <v>9788.216386679998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1999</v>
+      </c>
       <c r="J35" t="n">
         <v>1929</v>
       </c>
@@ -2055,9 +2063,11 @@
         <v>8508.502798229998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1983</v>
+      </c>
       <c r="J42" t="n">
         <v>1929</v>
       </c>
@@ -2094,9 +2104,11 @@
         <v>8233.502798229998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1995</v>
+      </c>
       <c r="J43" t="n">
         <v>1929</v>
       </c>
@@ -2133,9 +2145,11 @@
         <v>8324.992798229998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1993</v>
+      </c>
       <c r="J44" t="n">
         <v>1929</v>
       </c>
@@ -2172,9 +2186,11 @@
         <v>8450.454398229998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1994</v>
+      </c>
       <c r="J45" t="n">
         <v>1929</v>
       </c>
@@ -2211,9 +2227,11 @@
         <v>10637.72929823</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2000</v>
+      </c>
       <c r="J46" t="n">
         <v>1929</v>
       </c>
@@ -2250,9 +2268,11 @@
         <v>14138.84409823</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2004</v>
+      </c>
       <c r="J47" t="n">
         <v>1929</v>
       </c>
@@ -2289,9 +2309,11 @@
         <v>15935.29909823</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2013</v>
+      </c>
       <c r="J48" t="n">
         <v>1929</v>
       </c>
@@ -2328,9 +2350,11 @@
         <v>17670.02029823</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2019</v>
+      </c>
       <c r="J49" t="n">
         <v>1929</v>
       </c>
@@ -2367,9 +2391,11 @@
         <v>17459.33439823</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2022</v>
+      </c>
       <c r="J50" t="n">
         <v>1929</v>
       </c>
@@ -2484,9 +2510,11 @@
         <v>17330.78739822999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2012</v>
+      </c>
       <c r="J53" t="n">
         <v>1929</v>
       </c>
@@ -3966,7 +3994,7 @@
         <v>32296.41702299</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -3974,15 +4002,13 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.061355624675998</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.003632589517385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4010,8 +4036,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4043,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4076,8 +4114,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +4150,17 @@
         <v>32757.55232298999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4142,8 +4192,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4175,8 +4231,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4208,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4306,17 @@
         <v>30089.77262298999</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4274,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4340,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4373,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4406,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4439,8 +4543,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4472,8 +4582,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4505,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4538,8 +4660,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4571,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4735,19 @@
         <v>23297.35492298999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4776,19 @@
         <v>25609.82802298999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2011</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4670,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4703,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4736,8 +4898,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4769,8 +4937,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4802,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4835,8 +5015,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4868,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4901,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4934,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4967,8 +5171,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5000,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5033,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5066,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5099,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5132,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5165,8 +5405,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5198,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5231,8 +5483,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5264,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5297,8 +5561,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5330,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5363,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5396,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5717,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5756,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5495,8 +5795,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5528,8 +5834,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5561,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5594,8 +5912,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5627,8 +5951,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5660,8 +5990,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5693,8 +6029,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5726,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +6107,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5792,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5825,8 +6185,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5858,8 +6224,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5891,8 +6263,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5924,8 +6302,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +6341,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5990,8 +6380,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6056,8 +6458,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6089,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6122,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6155,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6188,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6221,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6254,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6287,8 +6731,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6320,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6353,8 +6809,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6386,8 +6848,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6419,8 +6887,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6452,8 +6926,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6485,8 +6965,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6518,8 +7004,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6551,8 +7043,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +7082,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +7121,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +7160,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +7199,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6716,8 +7238,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6749,8 +7277,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6782,8 +7316,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6815,8 +7355,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6848,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6881,8 +7433,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6914,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6947,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6980,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7013,8 +7589,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7046,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7145,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7178,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7211,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7244,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7277,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7310,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7343,8 +7979,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7376,8 +8018,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7409,8 +8057,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7442,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7475,8 +8135,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7508,8 +8174,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7541,8 +8213,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7574,8 +8252,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7607,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7640,8 +8330,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7673,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7706,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +8447,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8486,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7805,8 +8525,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7838,8 +8564,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7871,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7904,8 +8642,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7937,8 +8681,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7970,8 +8720,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8003,8 +8759,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8036,8 +8798,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8069,8 +8837,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8102,8 +8876,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8135,8 +8915,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8168,8 +8954,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8201,8 +8993,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +9032,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +9071,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8300,8 +9110,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8333,8 +9149,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +9188,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8399,8 +9227,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8432,8 +9266,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +9305,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8498,8 +9344,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8564,8 +9422,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8597,8 +9461,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8630,8 +9500,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8663,8 +9539,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8696,8 +9578,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8729,8 +9617,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8762,8 +9656,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8795,8 +9695,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8828,8 +9734,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8861,8 +9773,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8894,8 +9812,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8927,8 +9851,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +9887,17 @@
         <v>41904.99284981001</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +9926,17 @@
         <v>45613.58524981001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9026,8 +9968,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +10004,17 @@
         <v>45329.51734981</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9092,8 +10046,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9125,8 +10085,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9158,8 +10124,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9191,8 +10163,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9224,8 +10202,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9257,8 +10241,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9290,8 +10280,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9323,8 +10319,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9356,8 +10358,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9389,8 +10397,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9422,8 +10436,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9455,8 +10475,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9488,8 +10514,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9521,8 +10553,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9554,8 +10592,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +10631,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +10670,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9653,8 +10709,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9686,8 +10748,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9719,8 +10787,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9752,8 +10826,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9785,8 +10865,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9818,8 +10904,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9851,8 +10943,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9884,8 +10982,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9917,8 +11021,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9950,8 +11060,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9983,8 +11099,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10016,8 +11138,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10049,8 +11177,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +11216,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +11255,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10148,8 +11294,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10181,8 +11333,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10214,8 +11372,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10247,8 +11411,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10280,8 +11450,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10313,8 +11489,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10343,11 +11525,17 @@
         <v>51870.94730492001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +11567,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10412,8 +11606,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10445,8 +11645,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10478,8 +11684,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10511,8 +11723,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +11762,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10577,8 +11801,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10610,8 +11840,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10643,8 +11879,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10676,8 +11918,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10709,8 +11957,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10742,8 +11996,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10775,8 +12035,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10808,8 +12074,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10841,8 +12113,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10874,8 +12152,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10907,8 +12191,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10940,8 +12230,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10973,8 +12269,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11006,8 +12308,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11039,8 +12347,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11072,8 +12386,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11105,8 +12425,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11138,8 +12464,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11171,8 +12503,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11201,11 +12539,17 @@
         <v>58952.13360492</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11234,11 +12578,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11267,11 +12617,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11300,11 +12656,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11333,11 +12695,17 @@
         <v>57472.25136323</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +12734,17 @@
         <v>57492.70496323</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11399,11 +12773,17 @@
         <v>57492.70496323</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11435,8 +12815,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11465,11 +12851,17 @@
         <v>60577.26646323</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11501,8 +12893,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11531,11 +12929,17 @@
         <v>61736.97616323</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11564,11 +12968,17 @@
         <v>62106.90146323</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11600,8 +13010,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11630,11 +13046,17 @@
         <v>69031.48812136</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11663,11 +13085,17 @@
         <v>62744.47682136</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,11 +13124,17 @@
         <v>56199.85312136001</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11729,11 +13163,17 @@
         <v>57062.78812136</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11765,8 +13205,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11798,8 +13244,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11831,8 +13283,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11864,8 +13322,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11897,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11930,8 +13400,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11963,8 +13439,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11996,8 +13478,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12029,8 +13517,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12062,8 +13556,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12095,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12128,8 +13634,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12161,8 +13673,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12194,8 +13712,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12227,8 +13751,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12260,8 +13790,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12293,8 +13829,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12326,8 +13868,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12359,8 +13907,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +13946,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12425,8 +13985,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12458,8 +14024,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12491,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12524,8 +14102,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12557,8 +14141,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12590,8 +14180,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12620,11 +14216,17 @@
         <v>64356.85495006</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12653,11 +14255,17 @@
         <v>64279.17875006</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12686,11 +14294,17 @@
         <v>66428.16005006</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12719,11 +14333,17 @@
         <v>66702.03965006</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12752,11 +14372,17 @@
         <v>66952.69985006</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12788,8 +14414,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12821,8 +14453,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12854,8 +14492,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12887,8 +14531,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12920,8 +14570,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12953,8 +14609,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12983,11 +14645,17 @@
         <v>66327.40005005999</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13016,11 +14684,17 @@
         <v>67423.81487357999</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13049,11 +14723,17 @@
         <v>68825.78367357999</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13085,8 +14765,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13115,11 +14801,17 @@
         <v>61768.71087357998</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13148,11 +14840,17 @@
         <v>60149.95367357998</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +14879,17 @@
         <v>60494.46427357999</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13214,11 +14918,17 @@
         <v>60476.55887357998</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13247,11 +14957,17 @@
         <v>60495.19827357998</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13283,8 +14999,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13316,8 +15038,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13349,8 +15077,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13382,8 +15116,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13415,8 +15155,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13445,15 +15191,23 @@
         <v>65095.67277357998</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
+        <v>1.099717470191809</v>
+      </c>
+      <c r="M378" t="n">
+        <v>1.003632589517385</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -13478,7 +15232,7 @@
         <v>65123.50257357998</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13511,7 +15265,7 @@
         <v>65958.28377357998</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13544,7 +15298,7 @@
         <v>65958.28377357998</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13610,7 +15364,7 @@
         <v>79130.35537357998</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13643,7 +15397,7 @@
         <v>83640.53647357998</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13676,7 +15430,7 @@
         <v>89056.73687357998</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13709,7 +15463,7 @@
         <v>78784.55837357999</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13742,7 +15496,7 @@
         <v>77310.55654343999</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13775,7 +15529,7 @@
         <v>73202.49360274999</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13808,7 +15562,7 @@
         <v>62743.44010274999</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13841,7 +15595,7 @@
         <v>68159.98990274999</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13874,7 +15628,7 @@
         <v>70775.92720275</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13907,7 +15661,7 @@
         <v>74640.01660274999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13940,7 +15694,7 @@
         <v>74831.77270274999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13973,7 +15727,7 @@
         <v>70117.62370274999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14006,7 +15760,7 @@
         <v>63374.36620274999</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14039,7 +15793,7 @@
         <v>67912.19080274999</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14072,7 +15826,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14105,7 +15859,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14138,7 +15892,7 @@
         <v>66487.01470274999</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14171,7 +15925,7 @@
         <v>64479.12200274999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14204,7 +15958,7 @@
         <v>65591.29370275</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14237,7 +15991,7 @@
         <v>69541.22260275</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14270,7 +16024,7 @@
         <v>67855.34490275</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14303,7 +16057,7 @@
         <v>75525.20680275001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14336,7 +16090,7 @@
         <v>68985.79690275001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14369,7 +16123,7 @@
         <v>71187.84270275</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14402,7 +16156,7 @@
         <v>70238.02780275</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14435,7 +16189,7 @@
         <v>69343.12990275001</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14468,7 +16222,7 @@
         <v>67505.47270275</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14501,7 +16255,7 @@
         <v>68040.63832751001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14534,7 +16288,7 @@
         <v>66986.02432751001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14567,7 +16321,7 @@
         <v>63509.20462751001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14600,7 +16354,7 @@
         <v>59657.49192751001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14633,7 +16387,7 @@
         <v>60484.65862751001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14666,7 +16420,7 @@
         <v>62451.92172751001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14699,7 +16453,7 @@
         <v>58371.87592751001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14732,7 +16486,7 @@
         <v>55916.58432751001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14765,7 +16519,7 @@
         <v>55646.58432751001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14798,7 +16552,7 @@
         <v>56219.46882751001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14831,7 +16585,7 @@
         <v>56848.49182751001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14864,7 +16618,7 @@
         <v>56395.31632751002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14897,7 +16651,7 @@
         <v>56395.31632751002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14930,7 +16684,7 @@
         <v>56499.05882751002</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14963,7 +16717,7 @@
         <v>53047.72552751002</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14996,7 +16750,7 @@
         <v>50706.82822751002</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15029,7 +16783,7 @@
         <v>50909.16072751002</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15062,7 +16816,7 @@
         <v>55331.76092751002</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15095,7 +16849,7 @@
         <v>55803.88644094002</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15128,7 +16882,7 @@
         <v>55781.19324094002</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15161,7 +16915,7 @@
         <v>54961.26914094002</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15194,7 +16948,7 @@
         <v>58531.84394094002</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15227,7 +16981,7 @@
         <v>60822.20024094002</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15260,7 +17014,7 @@
         <v>60822.20024094002</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15293,7 +17047,7 @@
         <v>65663.99144094002</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15326,7 +17080,7 @@
         <v>65490.33874094002</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15359,7 +17113,7 @@
         <v>66520.81584094002</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15392,7 +17146,7 @@
         <v>64242.91214094002</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15425,7 +17179,7 @@
         <v>63435.73254094001</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15458,7 +17212,7 @@
         <v>63435.73254094001</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15491,7 +17245,7 @@
         <v>62141.07444094001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15524,7 +17278,7 @@
         <v>62307.41354094001</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15557,7 +17311,7 @@
         <v>61461.28954094001</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15590,7 +17344,7 @@
         <v>59972.35074094</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15623,7 +17377,7 @@
         <v>60148.82984094</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15656,7 +17410,7 @@
         <v>58784.89574094</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15689,7 +17443,7 @@
         <v>58494.92694094</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15722,7 +17476,7 @@
         <v>58494.92694094</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15755,7 +17509,7 @@
         <v>58772.23194094</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15788,7 +17542,7 @@
         <v>59073.76994094</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15821,7 +17575,7 @@
         <v>59131.76994094</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15854,7 +17608,7 @@
         <v>59131.76994094</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15887,7 +17641,7 @@
         <v>59592.39724094</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15920,7 +17674,7 @@
         <v>59592.39724094</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15953,7 +17707,7 @@
         <v>59592.39724094</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15986,7 +17740,7 @@
         <v>59592.39724094</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16019,7 +17773,7 @@
         <v>58344.54324094</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16052,7 +17806,7 @@
         <v>54143.39914094</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16085,7 +17839,7 @@
         <v>53011.09024094</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16118,7 +17872,7 @@
         <v>51861.16374094</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16151,7 +17905,7 @@
         <v>51507.84274094</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16184,7 +17938,7 @@
         <v>49293.56294094</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16217,7 +17971,7 @@
         <v>48629.44994094</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16250,7 +18004,7 @@
         <v>48860.89924094</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16283,7 +18037,7 @@
         <v>47344.39524094</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16316,7 +18070,7 @@
         <v>48317.38424094</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16349,7 +18103,7 @@
         <v>48944.01824094</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16448,7 +18202,7 @@
         <v>51312.22464094</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16514,7 +18268,7 @@
         <v>50315.86634094</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16547,7 +18301,7 @@
         <v>50998.70459513</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16580,7 +18334,7 @@
         <v>50558.22369512999</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16646,7 +18400,7 @@
         <v>49531.58579512999</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16679,7 +18433,7 @@
         <v>48833.91029512999</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16712,7 +18466,7 @@
         <v>48833.91029512999</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16745,7 +18499,7 @@
         <v>47759.51029512999</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16778,7 +18532,7 @@
         <v>46752.23389512999</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16811,7 +18565,7 @@
         <v>46633.15289512999</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16844,7 +18598,7 @@
         <v>46399.45049512999</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16943,7 +18697,7 @@
         <v>45495.47239512999</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16976,7 +18730,7 @@
         <v>45759.47239512999</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18560,7 +20314,7 @@
         <v>61601.16188985998</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18593,7 +20347,7 @@
         <v>74652.31038985998</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18626,7 +20380,7 @@
         <v>68740.72068985998</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18659,7 +20413,7 @@
         <v>70606.47558985998</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18692,7 +20446,7 @@
         <v>73405.06448985999</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18725,7 +20479,7 @@
         <v>73763.03658985998</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18758,7 +20512,7 @@
         <v>73715.87448985998</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18791,7 +20545,7 @@
         <v>73930.13798985998</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18824,7 +20578,7 @@
         <v>73931.59748985998</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18890,7 +20644,7 @@
         <v>71159.46228985998</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19022,7 +20776,7 @@
         <v>73285.00768985998</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19088,7 +20842,7 @@
         <v>71735.77418985998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19121,7 +20875,7 @@
         <v>72597.82808325998</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19154,7 +20908,7 @@
         <v>72564.68418325999</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19187,7 +20941,7 @@
         <v>76038.64148325998</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19220,7 +20974,7 @@
         <v>75690.01738325998</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19253,7 +21007,7 @@
         <v>75406.81258325998</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19286,7 +21040,7 @@
         <v>75499.95058325998</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19319,7 +21073,7 @@
         <v>73598.80238325999</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19352,7 +21106,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19385,7 +21139,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19418,7 +21172,7 @@
         <v>73513.13508325999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19451,7 +21205,7 @@
         <v>73474.18048325999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19484,7 +21238,7 @@
         <v>74113.29518325999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19517,7 +21271,7 @@
         <v>74459.78918326</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19550,7 +21304,7 @@
         <v>75217.75758326</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19583,7 +21337,7 @@
         <v>75752.60808326</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19616,7 +21370,7 @@
         <v>77635.63058326</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19946,7 +21700,7 @@
         <v>86169.27827202</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19979,7 +21733,7 @@
         <v>81965.06537202001</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20078,7 +21832,7 @@
         <v>81833.52627202</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20243,7 +21997,7 @@
         <v>80508.45037202</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20276,7 +22030,7 @@
         <v>80211.95577202</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20309,7 +22063,7 @@
         <v>79957.73677202</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20342,7 +22096,7 @@
         <v>79947.52277201999</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20375,7 +22129,7 @@
         <v>80016.44167202</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20408,7 +22162,7 @@
         <v>80011.35517201999</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20441,7 +22195,7 @@
         <v>80011.35517201999</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20474,7 +22228,7 @@
         <v>80052.35517201999</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20507,7 +22261,7 @@
         <v>80052.48517201999</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20540,7 +22294,7 @@
         <v>80052.48517201999</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20573,7 +22327,7 @@
         <v>79618.74417202</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20606,7 +22360,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20639,7 +22393,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20672,7 +22426,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20705,7 +22459,7 @@
         <v>78589.30667202</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20771,7 +22525,7 @@
         <v>76738.75227202001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21266,7 +23020,7 @@
         <v>60390.03527123001</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21299,7 +23053,7 @@
         <v>59178.22887123001</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21332,7 +23086,7 @@
         <v>59272.70247123</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21596,7 +23350,7 @@
         <v>59532.63237123001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21629,7 +23383,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21662,7 +23416,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21695,7 +23449,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21728,7 +23482,7 @@
         <v>60351.83407123001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21761,7 +23515,7 @@
         <v>59954.80827123</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21794,7 +23548,7 @@
         <v>59026.80547123</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21827,7 +23581,7 @@
         <v>59045.52487123</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21860,7 +23614,7 @@
         <v>58959.36917123</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21893,7 +23647,7 @@
         <v>58960.36917123</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21926,7 +23680,7 @@
         <v>58911.71225496</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21959,7 +23713,7 @@
         <v>58922.42575495999</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21992,7 +23746,7 @@
         <v>59230.92305496</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22025,7 +23779,7 @@
         <v>58766.67055495999</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22058,7 +23812,7 @@
         <v>59056.51805496</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22091,7 +23845,7 @@
         <v>58324.51805496</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22124,7 +23878,7 @@
         <v>58371.95845496</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22157,7 +23911,7 @@
         <v>58355.01225496</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22190,7 +23944,7 @@
         <v>58357.01225496</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22223,7 +23977,7 @@
         <v>58694.59455496</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22256,7 +24010,7 @@
         <v>58214.23175496</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22289,7 +24043,7 @@
         <v>58457.30165496</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22322,7 +24076,7 @@
         <v>59365.70705496</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22487,7 +24241,7 @@
         <v>53186.45699020001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22520,7 +24274,7 @@
         <v>53454.46669020001</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22553,7 +24307,7 @@
         <v>54866.07309020001</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22586,7 +24340,7 @@
         <v>53592.1967902</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22619,7 +24373,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22652,7 +24406,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22685,7 +24439,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22718,7 +24472,7 @@
         <v>48852.6391902</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22751,7 +24505,7 @@
         <v>48229.54949020001</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22784,7 +24538,7 @@
         <v>48302.1160902</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22817,7 +24571,7 @@
         <v>48322.37839020001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22850,7 +24604,7 @@
         <v>48343.18289020001</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22916,7 +24670,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23015,7 +24769,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23048,7 +24802,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23081,7 +24835,7 @@
         <v>48129.10406298001</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23114,7 +24868,7 @@
         <v>48222.42166298001</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26612,7 +28366,7 @@
         <v>44458.03981291004</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26678,7 +28432,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27943,6 +29697,6 @@
       <c r="M817" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-26 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1132,11 +1132,9 @@
         <v>9028.895392599999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>1929</v>
       </c>
@@ -1173,11 +1171,9 @@
         <v>15251.2971926</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>1929</v>
       </c>
@@ -1214,11 +1210,9 @@
         <v>13462.8614926</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>1929</v>
       </c>
@@ -1255,11 +1249,9 @@
         <v>16871.8266926</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>1929</v>
       </c>
@@ -1296,11 +1288,9 @@
         <v>15778.8467926</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1929</v>
       </c>
@@ -1337,11 +1327,9 @@
         <v>10331.7653926</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>1929</v>
       </c>
@@ -1378,11 +1366,9 @@
         <v>11800.15008668</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>1929</v>
       </c>
@@ -1419,11 +1405,9 @@
         <v>13867.98468668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1929</v>
       </c>
@@ -1460,11 +1444,9 @@
         <v>14276.01548668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1929</v>
       </c>
@@ -1501,11 +1483,9 @@
         <v>15489.75878668</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1929</v>
       </c>
@@ -1542,11 +1522,9 @@
         <v>17202.56498668</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>1929</v>
       </c>
@@ -1583,11 +1561,9 @@
         <v>17138.86498668</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1929</v>
       </c>
@@ -1624,11 +1600,9 @@
         <v>18147.91648668</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1929</v>
       </c>
@@ -1665,11 +1639,9 @@
         <v>19056.17578668</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>1929</v>
       </c>
@@ -1706,11 +1678,9 @@
         <v>18359.15288668</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1929</v>
       </c>
@@ -1747,11 +1717,9 @@
         <v>19388.67238668</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>1929</v>
       </c>
@@ -1788,11 +1756,9 @@
         <v>9788.216386679998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>1929</v>
       </c>
@@ -2063,11 +2029,9 @@
         <v>8508.502798229998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>1929</v>
       </c>
@@ -2104,11 +2068,9 @@
         <v>8233.502798229998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>1929</v>
       </c>
@@ -2145,21 +2107,19 @@
         <v>8324.992798229998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1993</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>1929</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>1.02869621565578</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2186,19 +2146,11 @@
         <v>8450.454398229998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1994</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2227,19 +2179,11 @@
         <v>10637.72929823</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2268,19 +2212,11 @@
         <v>14138.84409823</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2004</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2309,19 +2245,11 @@
         <v>15935.29909823</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2350,19 +2278,11 @@
         <v>17670.02029823</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2019</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2391,19 +2311,11 @@
         <v>17459.33439823</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2432,17 +2344,11 @@
         <v>16124.51219823</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2471,17 +2377,11 @@
         <v>17994.65199822999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2510,19 +2410,11 @@
         <v>17330.78739822999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2012</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2551,17 +2443,11 @@
         <v>17659.78739822999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2476,11 @@
         <v>17737.88739822999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2629,17 +2509,11 @@
         <v>17736.88690170999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2542,11 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2575,11 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2746,17 +2608,11 @@
         <v>18004.78220170999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2785,17 +2641,11 @@
         <v>17649.78220170999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2674,11 @@
         <v>19059.93160170999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2863,17 +2707,11 @@
         <v>19058.93160170999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2740,11 @@
         <v>18843.73980170999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2773,11 @@
         <v>20092.20770170999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2806,11 @@
         <v>20183.73400170999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2839,11 @@
         <v>20243.83640170999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +2872,11 @@
         <v>20696.25580170999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +2905,11 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +2938,11 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +2971,11 @@
         <v>22759.77030170999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +3004,11 @@
         <v>23041.34820170999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +3037,11 @@
         <v>22948.68990170999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3292,17 +3070,11 @@
         <v>22938.21670170999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +3103,11 @@
         <v>25176.64290170999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +3136,11 @@
         <v>25690.54750171</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3409,17 +3169,11 @@
         <v>25690.54750171</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +3202,11 @@
         <v>25361.52310171</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3235,11 @@
         <v>25600.66390171</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3268,11 @@
         <v>25600.66390171</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3301,11 @@
         <v>28206.66180171</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3334,11 @@
         <v>30587.07360171</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3367,11 @@
         <v>28833.00400171</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3682,17 +3400,11 @@
         <v>28837.00400171</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3721,17 +3433,11 @@
         <v>29799.35940171</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3760,17 +3466,11 @@
         <v>32938.41750171</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3799,17 +3499,11 @@
         <v>32146.74750171</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3532,11 @@
         <v>32146.74750171</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3565,11 @@
         <v>32146.74750171</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3598,11 @@
         <v>32988.67040171</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3631,11 @@
         <v>32988.67040171</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3664,11 @@
         <v>32296.41702299</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3697,11 @@
         <v>32714.55432299</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3730,11 @@
         <v>33075.08512298999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3763,11 @@
         <v>32671.54642298999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3796,11 @@
         <v>32757.55232298999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +3829,11 @@
         <v>32210.09342298999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +3862,11 @@
         <v>29175.56082298999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +3895,11 @@
         <v>29173.51402298999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4306,17 +3928,11 @@
         <v>30089.77262298999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4345,17 +3961,11 @@
         <v>26812.75222298999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4384,17 +3994,11 @@
         <v>26403.17422298999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4423,17 +4027,11 @@
         <v>24875.20502298999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4462,17 +4060,11 @@
         <v>24978.52202298999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4501,17 +4093,11 @@
         <v>24859.58612298999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4540,17 +4126,11 @@
         <v>24811.86412298999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4579,17 +4159,11 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4618,17 +4192,11 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4228,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4261,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4735,19 +4291,11 @@
         <v>23297.35492298999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1987</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4324,11 @@
         <v>25609.82802298999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2011</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4820,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4856,17 +4390,11 @@
         <v>23669.72241048999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4898,14 +4426,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4937,14 +4459,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4976,14 +4492,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5015,14 +4525,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5054,14 +4558,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5093,14 +4591,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5132,14 +4624,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5171,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5210,14 +4690,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5249,14 +4723,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5288,14 +4756,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5327,14 +4789,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5366,14 +4822,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5405,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5444,14 +4888,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +4921,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +4954,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +4987,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5600,14 +5020,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5639,14 +5053,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5678,14 +5086,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5717,14 +5119,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5756,14 +5152,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5795,14 +5185,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5218,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5873,14 +5251,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5912,14 +5284,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5951,14 +5317,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5990,14 +5350,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6029,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6068,14 +5416,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6107,14 +5449,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6146,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6185,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6224,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6263,14 +5581,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6302,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6341,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6416,17 +5710,11 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6455,17 +5743,11 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6497,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6533,17 +5809,11 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6572,17 +5842,11 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6611,17 +5875,11 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6653,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6692,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6728,17 +5974,11 @@
         <v>25967.13311157999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6767,17 +6007,11 @@
         <v>26586.97011157999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6806,17 +6040,11 @@
         <v>26699.59701157999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6845,17 +6073,11 @@
         <v>36846.95521157999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6884,17 +6106,11 @@
         <v>36385.50461157999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6923,17 +6139,11 @@
         <v>36395.30461158</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6962,17 +6172,11 @@
         <v>36395.30461158</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7001,17 +6205,11 @@
         <v>36155.10461158</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7040,17 +6238,11 @@
         <v>36073.03481158</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7079,17 +6271,11 @@
         <v>36063.03481158</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7118,17 +6304,11 @@
         <v>36063.03481158</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7157,17 +6337,11 @@
         <v>36063.03481158</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7196,17 +6370,11 @@
         <v>36016.90321158</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7235,17 +6403,11 @@
         <v>36016.90321158</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7274,17 +6436,11 @@
         <v>36062.26471158</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7313,17 +6469,11 @@
         <v>36134.67941158</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7352,17 +6502,11 @@
         <v>36535.67931158</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7391,17 +6535,11 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7430,17 +6568,11 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7472,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7511,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7550,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7589,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7628,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7664,17 +6766,11 @@
         <v>36930.98201158</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7703,17 +6799,11 @@
         <v>36930.98201158</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7742,17 +6832,11 @@
         <v>36930.98201158</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7784,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7820,17 +6898,11 @@
         <v>38442.62221158</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7859,17 +6931,11 @@
         <v>38522.62221158</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7898,17 +6964,11 @@
         <v>38505.33331158</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7937,17 +6997,11 @@
         <v>38541.33331158</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7976,17 +7030,11 @@
         <v>38510.99831158</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8018,14 +7066,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8057,14 +7099,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +7132,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +7165,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8174,14 +7198,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +7231,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +7264,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8291,14 +7297,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8330,14 +7330,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +7363,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +7396,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8447,14 +7429,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8486,14 +7462,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8525,14 +7495,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8564,14 +7528,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8603,14 +7561,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8642,14 +7594,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8681,14 +7627,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8720,14 +7660,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8759,14 +7693,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8798,14 +7726,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8837,14 +7759,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8876,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8915,14 +7825,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +7858,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8993,14 +7891,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +7924,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +7957,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +7990,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +8023,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9188,14 +8056,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +8089,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9266,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9305,14 +8155,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9344,14 +8188,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9383,14 +8221,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9422,14 +8254,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9461,14 +8287,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9500,14 +8320,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9539,14 +8353,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9578,14 +8386,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9617,14 +8419,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9656,14 +8452,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9695,14 +8485,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9734,14 +8518,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9773,14 +8551,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9809,17 +8581,11 @@
         <v>43132.96464981</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9848,17 +8614,11 @@
         <v>43104.99284981001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9887,17 +8647,11 @@
         <v>41904.99284981001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9926,17 +8680,11 @@
         <v>45613.58524981001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9965,17 +8713,11 @@
         <v>44627.32124981</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10004,17 +8746,11 @@
         <v>45329.51734981</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10043,17 +8779,11 @@
         <v>44935.28484981001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10082,17 +8812,11 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10121,17 +8845,11 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10160,17 +8878,11 @@
         <v>42448.11224981001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10199,17 +8911,11 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10238,17 +8944,11 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10277,17 +8977,11 @@
         <v>40984.27514981001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10316,17 +9010,11 @@
         <v>41289.70294981001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10358,14 +9046,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10397,14 +9079,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10436,14 +9112,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10475,14 +9145,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10514,14 +9178,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10553,14 +9211,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10592,14 +9244,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10628,17 +9274,11 @@
         <v>42929.86814981</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10667,17 +9307,11 @@
         <v>43922.50414981</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10706,17 +9340,11 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10745,17 +9373,11 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10784,17 +9406,11 @@
         <v>43793.38914981001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10823,17 +9439,11 @@
         <v>43575.42484981001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10862,17 +9472,11 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10901,17 +9505,11 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10940,17 +9538,11 @@
         <v>53566.44834981001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10979,17 +9571,11 @@
         <v>54632.66824981001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11018,17 +9604,11 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11057,17 +9637,11 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11096,17 +9670,11 @@
         <v>54798.18400492001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11135,17 +9703,11 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11174,17 +9736,11 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11213,17 +9769,11 @@
         <v>52299.84110492001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11252,17 +9802,11 @@
         <v>52294.84110492001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11294,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11330,17 +9868,11 @@
         <v>53004.81370492001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11372,14 +9904,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11411,14 +9937,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11450,14 +9970,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11489,14 +10003,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11528,14 +10036,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11567,14 +10069,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11606,14 +10102,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11645,14 +10135,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11684,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11723,14 +10201,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11762,14 +10234,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11801,14 +10267,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11840,14 +10300,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11876,17 +10330,11 @@
         <v>53560.48430492001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11915,17 +10363,11 @@
         <v>53554.58430492</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11954,17 +10396,11 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11993,17 +10429,11 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12032,17 +10462,11 @@
         <v>53205.04740492001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12071,17 +10495,11 @@
         <v>52886.16640492</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12110,17 +10528,11 @@
         <v>52571.32740492</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12149,17 +10561,11 @@
         <v>52334.47630492</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12188,17 +10594,11 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12227,17 +10627,11 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12266,17 +10660,11 @@
         <v>52588.68620492001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12305,17 +10693,11 @@
         <v>53036.85620492</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12344,17 +10726,11 @@
         <v>53077.85620492</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12383,17 +10759,11 @@
         <v>54796.08750492</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12422,17 +10792,11 @@
         <v>54626.28430492</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12461,17 +10825,11 @@
         <v>55887.57920492</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12500,17 +10858,11 @@
         <v>58952.13360492</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12539,17 +10891,11 @@
         <v>58952.13360492</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12578,17 +10924,11 @@
         <v>58714.86916323</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12617,17 +10957,11 @@
         <v>58714.86916323</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12656,17 +10990,11 @@
         <v>58714.86916323</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12695,17 +11023,11 @@
         <v>57472.25136323</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12734,17 +11056,11 @@
         <v>57492.70496323</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12773,17 +11089,11 @@
         <v>57492.70496323</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12812,17 +11122,11 @@
         <v>57864.41756323</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12851,17 +11155,11 @@
         <v>60577.26646323</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12890,17 +11188,11 @@
         <v>60255.21226323</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12929,17 +11221,11 @@
         <v>61736.97616323</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12968,17 +11254,11 @@
         <v>62106.90146323</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13007,17 +11287,11 @@
         <v>63021.73236323</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13046,17 +11320,11 @@
         <v>69031.48812136</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13085,17 +11353,11 @@
         <v>62744.47682136</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13124,17 +11386,11 @@
         <v>56199.85312136001</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13163,17 +11419,11 @@
         <v>57062.78812136</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13202,17 +11452,11 @@
         <v>60329.64422136</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13241,17 +11485,11 @@
         <v>57159.67762136</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13280,17 +11518,11 @@
         <v>57848.99122136</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13319,17 +11551,11 @@
         <v>57700.59622136001</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13358,17 +11584,11 @@
         <v>57257.72212136001</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13397,17 +11617,11 @@
         <v>60661.28958948</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13436,17 +11650,11 @@
         <v>60458.11238948</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13475,17 +11683,11 @@
         <v>60458.11238948</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13514,17 +11716,11 @@
         <v>62429.25768948</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13553,17 +11749,11 @@
         <v>62521.01088948</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13592,17 +11782,11 @@
         <v>62132.85618948</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13631,17 +11815,11 @@
         <v>62302.54498948</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13670,17 +11848,11 @@
         <v>61126.56008948</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13709,17 +11881,11 @@
         <v>61147.88068948</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13751,14 +11917,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13790,14 +11950,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13829,14 +11983,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13865,17 +12013,11 @@
         <v>61896.23918948</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13904,17 +12046,11 @@
         <v>62067.37338948</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13943,17 +12079,11 @@
         <v>62067.37338948</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13985,14 +12115,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14024,14 +12148,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14063,14 +12181,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14099,17 +12211,11 @@
         <v>64231.60365006</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14138,17 +12244,11 @@
         <v>65310.83925006</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14177,17 +12277,11 @@
         <v>65034.97905006</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14219,14 +12313,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14258,14 +12346,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14297,14 +12379,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14336,14 +12412,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14375,14 +12445,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14414,14 +12478,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14453,14 +12511,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14492,14 +12544,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14531,14 +12577,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14570,14 +12610,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14609,14 +12643,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14648,14 +12676,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14687,14 +12709,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14726,14 +12742,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14765,14 +12775,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14804,14 +12808,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14843,14 +12841,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14882,14 +12874,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14921,14 +12907,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14960,14 +12940,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14999,14 +12973,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15038,14 +13006,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15077,14 +13039,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15116,14 +13072,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15155,14 +13105,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15191,23 +13135,15 @@
         <v>65095.67277357998</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
-        <v>1.099717470191809</v>
-      </c>
-      <c r="M378" t="n">
-        <v>1.003632589517385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -15232,7 +13168,7 @@
         <v>65123.50257357998</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15265,7 +13201,7 @@
         <v>65958.28377357998</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15298,7 +13234,7 @@
         <v>65958.28377357998</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15364,7 +13300,7 @@
         <v>79130.35537357998</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15430,7 +13366,7 @@
         <v>89056.73687357998</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15463,7 +13399,7 @@
         <v>78784.55837357999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15496,7 +13432,7 @@
         <v>77310.55654343999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15529,7 +13465,7 @@
         <v>73202.49360274999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15562,7 +13498,7 @@
         <v>62743.44010274999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15595,7 +13531,7 @@
         <v>68159.98990274999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15628,7 +13564,7 @@
         <v>70775.92720275</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15661,7 +13597,7 @@
         <v>74640.01660274999</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15694,7 +13630,7 @@
         <v>74831.77270274999</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15727,7 +13663,7 @@
         <v>70117.62370274999</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15760,7 +13696,7 @@
         <v>63374.36620274999</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15793,7 +13729,7 @@
         <v>67912.19080274999</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15826,7 +13762,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15859,7 +13795,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15892,7 +13828,7 @@
         <v>66487.01470274999</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15925,7 +13861,7 @@
         <v>64479.12200274999</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15958,7 +13894,7 @@
         <v>65591.29370275</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15991,7 +13927,7 @@
         <v>69541.22260275</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16024,7 +13960,7 @@
         <v>67855.34490275</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16057,7 +13993,7 @@
         <v>75525.20680275001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16090,7 +14026,7 @@
         <v>68985.79690275001</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16123,7 +14059,7 @@
         <v>71187.84270275</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16156,7 +14092,7 @@
         <v>70238.02780275</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16189,7 +14125,7 @@
         <v>69343.12990275001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16222,7 +14158,7 @@
         <v>67505.47270275</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16255,7 +14191,7 @@
         <v>68040.63832751001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16288,7 +14224,7 @@
         <v>66986.02432751001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16321,7 +14257,7 @@
         <v>63509.20462751001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16354,7 +14290,7 @@
         <v>59657.49192751001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16387,7 +14323,7 @@
         <v>60484.65862751001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16420,7 +14356,7 @@
         <v>62451.92172751001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16453,7 +14389,7 @@
         <v>58371.87592751001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16486,7 +14422,7 @@
         <v>55916.58432751001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16519,7 +14455,7 @@
         <v>55646.58432751001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16552,7 +14488,7 @@
         <v>56219.46882751001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16585,7 +14521,7 @@
         <v>56848.49182751001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16618,7 +14554,7 @@
         <v>56395.31632751002</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16651,7 +14587,7 @@
         <v>56395.31632751002</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16684,7 +14620,7 @@
         <v>56499.05882751002</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16717,7 +14653,7 @@
         <v>53047.72552751002</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16750,7 +14686,7 @@
         <v>50706.82822751002</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16783,7 +14719,7 @@
         <v>50909.16072751002</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16816,7 +14752,7 @@
         <v>55331.76092751002</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16849,7 +14785,7 @@
         <v>55803.88644094002</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16882,7 +14818,7 @@
         <v>55781.19324094002</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16915,7 +14851,7 @@
         <v>54961.26914094002</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16948,7 +14884,7 @@
         <v>58531.84394094002</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16981,7 +14917,7 @@
         <v>60822.20024094002</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17014,7 +14950,7 @@
         <v>60822.20024094002</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17047,7 +14983,7 @@
         <v>65663.99144094002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17080,7 +15016,7 @@
         <v>65490.33874094002</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17113,7 +15049,7 @@
         <v>66520.81584094002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17146,7 +15082,7 @@
         <v>64242.91214094002</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17179,7 +15115,7 @@
         <v>63435.73254094001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17212,7 +15148,7 @@
         <v>63435.73254094001</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17245,7 +15181,7 @@
         <v>62141.07444094001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17278,7 +15214,7 @@
         <v>62307.41354094001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17311,7 +15247,7 @@
         <v>61461.28954094001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17344,7 +15280,7 @@
         <v>59972.35074094</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17377,7 +15313,7 @@
         <v>60148.82984094</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17410,7 +15346,7 @@
         <v>58784.89574094</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17443,7 +15379,7 @@
         <v>58494.92694094</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17476,7 +15412,7 @@
         <v>58494.92694094</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17509,7 +15445,7 @@
         <v>58772.23194094</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17542,7 +15478,7 @@
         <v>59073.76994094</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -20776,7 +18712,7 @@
         <v>73285.00768985998</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20842,7 +18778,7 @@
         <v>71735.77418985998</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20908,7 +18844,7 @@
         <v>72564.68418325999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20941,7 +18877,7 @@
         <v>76038.64148325998</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20974,7 +18910,7 @@
         <v>75690.01738325998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21007,7 +18943,7 @@
         <v>75406.81258325998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21040,7 +18976,7 @@
         <v>75499.95058325998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21073,7 +19009,7 @@
         <v>73598.80238325999</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21106,7 +19042,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21139,7 +19075,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21172,7 +19108,7 @@
         <v>73513.13508325999</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21205,7 +19141,7 @@
         <v>73474.18048325999</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21238,7 +19174,7 @@
         <v>74113.29518325999</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21271,7 +19207,7 @@
         <v>74459.78918326</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21304,7 +19240,7 @@
         <v>75217.75758326</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21337,7 +19273,7 @@
         <v>75752.60808326</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21370,7 +19306,7 @@
         <v>77635.63058326</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21700,7 +19636,7 @@
         <v>86169.27827202</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21832,7 +19768,7 @@
         <v>81833.52627202</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22030,7 +19966,7 @@
         <v>80211.95577202</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22063,7 +19999,7 @@
         <v>79957.73677202</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22096,7 +20032,7 @@
         <v>79947.52277201999</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22129,7 +20065,7 @@
         <v>80016.44167202</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22162,7 +20098,7 @@
         <v>80011.35517201999</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22195,7 +20131,7 @@
         <v>80011.35517201999</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22228,7 +20164,7 @@
         <v>80052.35517201999</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22261,7 +20197,7 @@
         <v>80052.48517201999</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22294,7 +20230,7 @@
         <v>80052.48517201999</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22327,7 +20263,7 @@
         <v>79618.74417202</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22360,7 +20296,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22393,7 +20329,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22426,7 +20362,7 @@
         <v>78614.24417202</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22459,7 +20395,7 @@
         <v>78589.30667202</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22525,7 +20461,7 @@
         <v>76738.75227202001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23020,7 +20956,7 @@
         <v>60390.03527123001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23053,7 +20989,7 @@
         <v>59178.22887123001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23086,7 +21022,7 @@
         <v>59272.70247123</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23350,7 +21286,7 @@
         <v>59532.63237123001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23383,7 +21319,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23416,7 +21352,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23449,7 +21385,7 @@
         <v>59558.03797123001</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23482,7 +21418,7 @@
         <v>60351.83407123001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23515,7 +21451,7 @@
         <v>59954.80827123</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23548,7 +21484,7 @@
         <v>59026.80547123</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23581,7 +21517,7 @@
         <v>59045.52487123</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23614,7 +21550,7 @@
         <v>58959.36917123</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23647,7 +21583,7 @@
         <v>58960.36917123</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23680,7 +21616,7 @@
         <v>58911.71225496</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23713,7 +21649,7 @@
         <v>58922.42575495999</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23746,7 +21682,7 @@
         <v>59230.92305496</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23779,7 +21715,7 @@
         <v>58766.67055495999</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23812,7 +21748,7 @@
         <v>59056.51805496</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23845,7 +21781,7 @@
         <v>58324.51805496</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23878,7 +21814,7 @@
         <v>58371.95845496</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23911,7 +21847,7 @@
         <v>58355.01225496</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23944,7 +21880,7 @@
         <v>58357.01225496</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24241,7 +22177,7 @@
         <v>53186.45699020001</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24274,7 +22210,7 @@
         <v>53454.46669020001</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24307,7 +22243,7 @@
         <v>54866.07309020001</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24340,7 +22276,7 @@
         <v>53592.1967902</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24373,7 +22309,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24406,7 +22342,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24439,7 +22375,7 @@
         <v>48888.13249020001</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24472,7 +22408,7 @@
         <v>48852.6391902</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24505,7 +22441,7 @@
         <v>48229.54949020001</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24538,7 +22474,7 @@
         <v>48302.1160902</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24571,7 +22507,7 @@
         <v>48322.37839020001</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24604,7 +22540,7 @@
         <v>48343.18289020001</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24670,7 +22606,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24769,7 +22705,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24802,7 +22738,7 @@
         <v>47823.35386298001</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24835,7 +22771,7 @@
         <v>48129.10406298001</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24868,7 +22804,7 @@
         <v>48222.42166298001</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -28168,7 +26104,7 @@
         <v>42856.13781291003</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28201,7 +26137,7 @@
         <v>42790.36761291003</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28234,7 +26170,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28267,7 +26203,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28300,7 +26236,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28333,7 +26269,7 @@
         <v>44327.13981291003</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28366,7 +26302,7 @@
         <v>44458.03981291004</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28399,7 +26335,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28432,7 +26368,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28465,7 +26401,7 @@
         <v>43833.51171291004</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28498,7 +26434,7 @@
         <v>43407.42461291004</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28531,7 +26467,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28564,7 +26500,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28597,7 +26533,7 @@
         <v>46446.81581291004</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28630,7 +26566,7 @@
         <v>46688.79481291004</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28663,7 +26599,7 @@
         <v>46806.49471291004</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28696,7 +26632,7 @@
         <v>46718.77581291004</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28729,7 +26665,7 @@
         <v>45171.44321291004</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28762,7 +26698,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28795,7 +26731,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28828,7 +26764,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28861,7 +26797,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28894,7 +26830,7 @@
         <v>44955.33861291004</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28927,7 +26863,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28960,7 +26896,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28993,7 +26929,7 @@
         <v>44626.49631291004</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29026,7 +26962,7 @@
         <v>44408.49631291004</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29059,7 +26995,7 @@
         <v>44412.61111291005</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29092,7 +27028,7 @@
         <v>44209.61071291005</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29125,7 +27061,7 @@
         <v>43491.58681291005</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29158,7 +27094,7 @@
         <v>43495.70161291005</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29191,7 +27127,7 @@
         <v>43605.17661291005</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29224,7 +27160,7 @@
         <v>44572.29451291005</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29257,7 +27193,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29290,7 +27226,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29323,7 +27259,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29356,7 +27292,7 @@
         <v>44652.21401291004</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29389,7 +27325,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29422,7 +27358,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29455,7 +27391,7 @@
         <v>44693.80721291005</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29587,7 +27523,7 @@
         <v>44508.38091291005</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29620,7 +27556,7 @@
         <v>44558.86546889005</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29653,7 +27589,7 @@
         <v>44770.86546889005</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29686,7 +27622,7 @@
         <v>44771.86546889005</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29697,6 +27633,6 @@
       <c r="M817" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-26 BackTest QTUM.xlsx
@@ -1132,9 +1132,11 @@
         <v>9028.895392599999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1976</v>
+      </c>
       <c r="J19" t="n">
         <v>1929</v>
       </c>
@@ -1171,9 +1173,11 @@
         <v>15251.2971926</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1985</v>
+      </c>
       <c r="J20" t="n">
         <v>1929</v>
       </c>
@@ -1210,9 +1214,11 @@
         <v>13462.8614926</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1986</v>
+      </c>
       <c r="J21" t="n">
         <v>1929</v>
       </c>
@@ -1249,9 +1255,11 @@
         <v>16871.8266926</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1982</v>
+      </c>
       <c r="J22" t="n">
         <v>1929</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>8324.992798229998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -2115,11 +2123,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.02869621565578</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2149,8 +2157,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2193,17 @@
         <v>10637.72929823</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2232,17 @@
         <v>14138.84409823</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2271,17 @@
         <v>15935.29909823</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2310,17 @@
         <v>17670.02029823</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2349,17 @@
         <v>17459.33439823</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2388,17 @@
         <v>16124.51219823</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2427,17 @@
         <v>17994.65199822999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2466,17 @@
         <v>17330.78739822999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2505,17 @@
         <v>17659.78739822999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2544,17 @@
         <v>17737.88739822999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2583,17 @@
         <v>17736.88690170999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2542,11 +2622,17 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2661,17 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2608,11 +2700,17 @@
         <v>18004.78220170999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2641,11 +2739,17 @@
         <v>17649.78220170999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2778,17 @@
         <v>19059.93160170999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2817,17 @@
         <v>19058.93160170999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2856,17 @@
         <v>18843.73980170999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2895,17 @@
         <v>20092.20770170999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +2934,17 @@
         <v>20183.73400170999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2973,17 @@
         <v>20243.83640170999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2872,11 +3012,17 @@
         <v>20696.25580170999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +3051,17 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2938,11 +3090,17 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2971,11 +3129,17 @@
         <v>22759.77030170999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3004,11 +3168,17 @@
         <v>23041.34820170999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +3207,17 @@
         <v>22948.68990170999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3070,11 +3246,17 @@
         <v>22938.21670170999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +3285,17 @@
         <v>25176.64290170999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3136,11 +3324,17 @@
         <v>25690.54750171</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3363,17 @@
         <v>25690.54750171</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +3402,17 @@
         <v>25361.52310171</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3235,11 +3441,17 @@
         <v>25600.66390171</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +3480,17 @@
         <v>25600.66390171</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3519,17 @@
         <v>28206.66180171</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3334,11 +3558,17 @@
         <v>30587.07360171</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3597,17 @@
         <v>28833.00400171</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3400,11 +3636,17 @@
         <v>28837.00400171</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3675,17 @@
         <v>29799.35940171</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3466,11 +3714,17 @@
         <v>32938.41750171</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3753,17 @@
         <v>32146.74750171</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3792,17 @@
         <v>32146.74750171</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3831,17 @@
         <v>32146.74750171</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3870,17 @@
         <v>32988.67040171</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3631,11 +3909,17 @@
         <v>32988.67040171</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3948,17 @@
         <v>32296.41702299</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3987,17 @@
         <v>32714.55432299</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3730,11 +4026,17 @@
         <v>33075.08512298999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +4065,17 @@
         <v>32671.54642298999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +4104,17 @@
         <v>32757.55232298999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3829,11 +4143,17 @@
         <v>32210.09342298999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3862,11 +4182,17 @@
         <v>29175.56082298999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3895,11 +4221,17 @@
         <v>29173.51402298999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3928,11 +4260,17 @@
         <v>30089.77262298999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +4299,17 @@
         <v>26812.75222298999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3994,11 +4338,17 @@
         <v>26403.17422298999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +4377,17 @@
         <v>24875.20502298999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4060,11 +4416,17 @@
         <v>24978.52202298999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4455,17 @@
         <v>24859.58612298999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +4494,17 @@
         <v>24811.86412298999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +4533,17 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +4572,17 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4261,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4360,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4806,17 @@
         <v>23669.72241048999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4426,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4459,8 +4887,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4492,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4558,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4591,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4690,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4822,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4921,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4987,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5710,11 +6366,17 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5743,11 +6405,17 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +6483,17 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +6522,17 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +6561,17 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5911,8 +6603,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +6678,17 @@
         <v>25967.13311157999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6007,11 +6717,17 @@
         <v>26586.97011157999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +6756,17 @@
         <v>26699.59701157999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6073,11 +6795,17 @@
         <v>36846.95521157999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +6834,17 @@
         <v>36385.50461157999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6139,11 +6873,17 @@
         <v>36395.30461158</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +6912,17 @@
         <v>36395.30461158</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +6951,17 @@
         <v>36155.10461158</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +6990,17 @@
         <v>36073.03481158</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +7029,17 @@
         <v>36063.03481158</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +7068,17 @@
         <v>36063.03481158</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6337,11 +7107,17 @@
         <v>36063.03481158</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6370,11 +7146,17 @@
         <v>36016.90321158</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6403,11 +7185,17 @@
         <v>36016.90321158</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6436,11 +7224,17 @@
         <v>36062.26471158</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +7263,17 @@
         <v>36134.67941158</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6502,11 +7302,17 @@
         <v>36535.67931158</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +7341,17 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6568,11 +7380,17 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +7422,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +7461,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +7614,17 @@
         <v>36930.98201158</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6799,11 +7653,17 @@
         <v>36930.98201158</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +7692,17 @@
         <v>36930.98201158</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7734,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6898,11 +7770,17 @@
         <v>38442.62221158</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +7809,17 @@
         <v>38522.62221158</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6964,11 +7848,17 @@
         <v>38505.33331158</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +7887,17 @@
         <v>38541.33331158</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +7926,17 @@
         <v>38510.99831158</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7066,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7099,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7132,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7165,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7198,8 +8124,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7231,8 +8163,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +8202,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7297,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7330,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7363,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7396,8 +8358,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +8436,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7495,8 +8475,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +8553,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +8592,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +8631,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +8709,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +8748,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +8787,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +8826,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +8865,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7858,8 +8904,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7924,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +9021,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7990,8 +9060,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8023,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8056,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +9216,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8485,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8518,8 +9684,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8551,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +9759,17 @@
         <v>43132.96464981</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +9798,17 @@
         <v>43104.99284981001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +9837,17 @@
         <v>41904.99284981001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +9876,17 @@
         <v>45613.58524981001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8713,11 +9915,17 @@
         <v>44627.32124981</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +9954,17 @@
         <v>45329.51734981</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8779,11 +9993,17 @@
         <v>44935.28484981001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +10032,17 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +10071,17 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8878,11 +10110,17 @@
         <v>42448.11224981001</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +10149,17 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +10188,17 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +10227,17 @@
         <v>40984.27514981001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +10266,17 @@
         <v>41289.70294981001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +10425,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +10464,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9211,8 +10503,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +10542,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +10578,17 @@
         <v>42929.86814981</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +10617,17 @@
         <v>43922.50414981</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9340,11 +10656,17 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +10695,17 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9406,11 +10734,17 @@
         <v>43793.38914981001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +10773,17 @@
         <v>43575.42484981001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9472,11 +10812,17 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9505,11 +10851,17 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +10890,17 @@
         <v>53566.44834981001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9571,11 +10929,17 @@
         <v>54632.66824981001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9604,11 +10968,17 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9637,11 +11007,17 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9670,11 +11046,17 @@
         <v>54798.18400492001</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9703,11 +11085,17 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +11124,17 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +11163,17 @@
         <v>52299.84110492001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9802,11 +11202,17 @@
         <v>52294.84110492001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +11244,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9868,11 +11280,17 @@
         <v>53004.81370492001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +11322,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +11361,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +11400,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +11439,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +11478,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +11517,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +11556,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +11595,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +11634,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +11673,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +11751,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +11790,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10330,11 +11826,17 @@
         <v>53560.48430492001</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10363,11 +11865,17 @@
         <v>53554.58430492</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10396,11 +11904,17 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10429,11 +11943,17 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10462,11 +11982,17 @@
         <v>53205.04740492001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10495,11 +12021,17 @@
         <v>52886.16640492</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10528,11 +12060,17 @@
         <v>52571.32740492</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10561,11 +12099,17 @@
         <v>52334.47630492</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10594,11 +12138,17 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10627,11 +12177,17 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +12216,17 @@
         <v>52588.68620492001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10693,11 +12255,17 @@
         <v>53036.85620492</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10726,11 +12294,17 @@
         <v>53077.85620492</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +12333,17 @@
         <v>54796.08750492</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +12372,17 @@
         <v>54626.28430492</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10825,11 +12411,17 @@
         <v>55887.57920492</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10858,11 +12450,17 @@
         <v>58952.13360492</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10891,11 +12489,17 @@
         <v>58952.13360492</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10924,11 +12528,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10957,11 +12567,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +12606,17 @@
         <v>58714.86916323</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11023,11 +12645,17 @@
         <v>57472.25136323</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +12684,17 @@
         <v>57492.70496323</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +12723,17 @@
         <v>57492.70496323</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +12762,17 @@
         <v>57864.41756323</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11155,11 +12801,17 @@
         <v>60577.26646323</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11188,11 +12840,17 @@
         <v>60255.21226323</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11221,11 +12879,17 @@
         <v>61736.97616323</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11254,11 +12918,17 @@
         <v>62106.90146323</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11287,11 +12957,17 @@
         <v>63021.73236323</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11320,11 +12996,17 @@
         <v>69031.48812136</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +13035,17 @@
         <v>62744.47682136</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11386,11 +13074,17 @@
         <v>56199.85312136001</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11419,11 +13113,17 @@
         <v>57062.78812136</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11452,11 +13152,17 @@
         <v>60329.64422136</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11485,11 +13191,17 @@
         <v>57159.67762136</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11518,11 +13230,17 @@
         <v>57848.99122136</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11551,11 +13269,17 @@
         <v>57700.59622136001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11584,11 +13308,17 @@
         <v>57257.72212136001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11617,11 +13347,17 @@
         <v>60661.28958948</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11650,11 +13386,17 @@
         <v>60458.11238948</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11683,11 +13425,17 @@
         <v>60458.11238948</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11716,11 +13464,17 @@
         <v>62429.25768948</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11749,11 +13503,17 @@
         <v>62521.01088948</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11782,11 +13542,17 @@
         <v>62132.85618948</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11815,11 +13581,17 @@
         <v>62302.54498948</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11848,11 +13620,17 @@
         <v>61126.56008948</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +13659,17 @@
         <v>61147.88068948</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +13701,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11950,8 +13740,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11983,8 +13779,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12013,11 +13815,17 @@
         <v>61896.23918948</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12046,11 +13854,17 @@
         <v>62067.37338948</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +13893,17 @@
         <v>62067.37338948</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12115,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12148,8 +13974,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +14013,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +14049,17 @@
         <v>64231.60365006</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12244,11 +14088,17 @@
         <v>65310.83925006</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12277,11 +14127,17 @@
         <v>65034.97905006</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +14169,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +14208,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +14247,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +14286,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +14325,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +14364,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +14442,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +14481,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +14520,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +14559,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12676,8 +14598,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +14637,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +14676,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +14715,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +14754,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +14793,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12874,8 +14832,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12907,8 +14871,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12940,8 +14910,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +14949,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13006,8 +14988,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +15027,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13072,8 +15066,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13105,8 +15105,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13138,8 +15144,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13171,8 +15183,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13204,8 +15222,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13237,8 +15261,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13270,8 +15300,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13303,8 +15339,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13336,8 +15378,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13366,15 +15414,23 @@
         <v>89056.73687357998</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
+        <v>1.137560912389839</v>
+      </c>
+      <c r="M385" t="n">
+        <v>1.003632589517385</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -13399,7 +15455,7 @@
         <v>78784.55837357999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13432,7 +15488,7 @@
         <v>77310.55654343999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13465,7 +15521,7 @@
         <v>73202.49360274999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13498,7 +15554,7 @@
         <v>62743.44010274999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13531,7 +15587,7 @@
         <v>68159.98990274999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13564,7 +15620,7 @@
         <v>70775.92720275</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13597,7 +15653,7 @@
         <v>74640.01660274999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13630,7 +15686,7 @@
         <v>74831.77270274999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13663,7 +15719,7 @@
         <v>70117.62370274999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13696,7 +15752,7 @@
         <v>63374.36620274999</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13729,7 +15785,7 @@
         <v>67912.19080274999</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13762,7 +15818,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13795,7 +15851,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13828,7 +15884,7 @@
         <v>66487.01470274999</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13861,7 +15917,7 @@
         <v>64479.12200274999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13894,7 +15950,7 @@
         <v>65591.29370275</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13927,7 +15983,7 @@
         <v>69541.22260275</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13960,7 +16016,7 @@
         <v>67855.34490275</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13993,7 +16049,7 @@
         <v>75525.20680275001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14026,7 +16082,7 @@
         <v>68985.79690275001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14059,7 +16115,7 @@
         <v>71187.84270275</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14092,7 +16148,7 @@
         <v>70238.02780275</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14125,7 +16181,7 @@
         <v>69343.12990275001</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14158,7 +16214,7 @@
         <v>67505.47270275</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14191,7 +16247,7 @@
         <v>68040.63832751001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14224,7 +16280,7 @@
         <v>66986.02432751001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14257,7 +16313,7 @@
         <v>63509.20462751001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14290,7 +16346,7 @@
         <v>59657.49192751001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14323,7 +16379,7 @@
         <v>60484.65862751001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14356,7 +16412,7 @@
         <v>62451.92172751001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14389,7 +16445,7 @@
         <v>58371.87592751001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14422,7 +16478,7 @@
         <v>55916.58432751001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14455,7 +16511,7 @@
         <v>55646.58432751001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -18316,7 +20372,7 @@
         <v>68740.72068985998</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18349,7 +20405,7 @@
         <v>70606.47558985998</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18415,7 +20471,7 @@
         <v>73763.03658985998</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18448,7 +20504,7 @@
         <v>73715.87448985998</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18481,7 +20537,7 @@
         <v>73930.13798985998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18514,7 +20570,7 @@
         <v>73931.59748985998</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18547,7 +20603,7 @@
         <v>71999.32608985998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18580,7 +20636,7 @@
         <v>71159.46228985998</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18613,7 +20669,7 @@
         <v>71439.64768985998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18679,7 +20735,7 @@
         <v>71511.11758985998</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18712,7 +20768,7 @@
         <v>73285.00768985998</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18745,7 +20801,7 @@
         <v>73556.27418985998</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18778,7 +20834,7 @@
         <v>71735.77418985998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18811,7 +20867,7 @@
         <v>72597.82808325998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18844,7 +20900,7 @@
         <v>72564.68418325999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18877,7 +20933,7 @@
         <v>76038.64148325998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18910,7 +20966,7 @@
         <v>75690.01738325998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18943,7 +20999,7 @@
         <v>75406.81258325998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18976,7 +21032,7 @@
         <v>75499.95058325998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19009,7 +21065,7 @@
         <v>73598.80238325999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19042,7 +21098,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19075,7 +21131,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19108,7 +21164,7 @@
         <v>73513.13508325999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19141,7 +21197,7 @@
         <v>73474.18048325999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19174,7 +21230,7 @@
         <v>74113.29518325999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19207,7 +21263,7 @@
         <v>74459.78918326</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19240,7 +21296,7 @@
         <v>75217.75758326</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19273,7 +21329,7 @@
         <v>75752.60808326</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19306,7 +21362,7 @@
         <v>77635.63058326</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19339,7 +21395,7 @@
         <v>75765.53158326</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19372,7 +21428,7 @@
         <v>75950.45908326001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19405,7 +21461,7 @@
         <v>75481.85458326001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19438,7 +21494,7 @@
         <v>75733.07658326</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19471,7 +21527,7 @@
         <v>75753.07788326</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19504,7 +21560,7 @@
         <v>74533.51068326</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19537,7 +21593,7 @@
         <v>74962.51268325999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19570,7 +21626,7 @@
         <v>86332.79604474</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19603,7 +21659,7 @@
         <v>86325.09604474</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19636,7 +21692,7 @@
         <v>86169.27827202</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19669,7 +21725,7 @@
         <v>81965.06537202001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19702,7 +21758,7 @@
         <v>82167.58107202001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19735,7 +21791,7 @@
         <v>82058.98107202</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19768,7 +21824,7 @@
         <v>81833.52627202</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19801,7 +21857,7 @@
         <v>81735.48237201999</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19834,7 +21890,7 @@
         <v>81842.15417201999</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19867,7 +21923,7 @@
         <v>81078.45727201999</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19900,7 +21956,7 @@
         <v>80777.45727201999</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19933,7 +21989,7 @@
         <v>80508.45037202</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19966,7 +22022,7 @@
         <v>80211.95577202</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20032,7 +22088,7 @@
         <v>79947.52277201999</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20065,7 +22121,7 @@
         <v>80016.44167202</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -26104,7 +28160,7 @@
         <v>42856.13781291003</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26137,7 +28193,7 @@
         <v>42790.36761291003</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26170,7 +28226,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26203,7 +28259,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26236,7 +28292,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26269,7 +28325,7 @@
         <v>44327.13981291003</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26302,7 +28358,7 @@
         <v>44458.03981291004</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26335,7 +28391,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26368,7 +28424,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26401,7 +28457,7 @@
         <v>43833.51171291004</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26434,7 +28490,7 @@
         <v>43407.42461291004</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26467,7 +28523,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26500,7 +28556,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26533,7 +28589,7 @@
         <v>46446.81581291004</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26566,7 +28622,7 @@
         <v>46688.79481291004</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26599,7 +28655,7 @@
         <v>46806.49471291004</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26632,7 +28688,7 @@
         <v>46718.77581291004</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26665,7 +28721,7 @@
         <v>45171.44321291004</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26698,7 +28754,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26731,7 +28787,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26764,7 +28820,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26797,7 +28853,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26830,7 +28886,7 @@
         <v>44955.33861291004</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26863,7 +28919,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26896,7 +28952,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26929,7 +28985,7 @@
         <v>44626.49631291004</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26962,7 +29018,7 @@
         <v>44408.49631291004</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26995,7 +29051,7 @@
         <v>44412.61111291005</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27028,7 +29084,7 @@
         <v>44209.61071291005</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27061,7 +29117,7 @@
         <v>43491.58681291005</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27094,7 +29150,7 @@
         <v>43495.70161291005</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27127,7 +29183,7 @@
         <v>43605.17661291005</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27160,7 +29216,7 @@
         <v>44572.29451291005</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27193,7 +29249,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27226,7 +29282,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27259,7 +29315,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27292,7 +29348,7 @@
         <v>44652.21401291004</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27325,7 +29381,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27358,7 +29414,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27391,7 +29447,7 @@
         <v>44693.80721291005</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27523,7 +29579,7 @@
         <v>44508.38091291005</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27556,7 +29612,7 @@
         <v>44558.86546889005</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27589,7 +29645,7 @@
         <v>44770.86546889005</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27622,7 +29678,7 @@
         <v>44771.86546889005</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
